--- a/all_data/all_classification.xlsx
+++ b/all_data/all_classification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wp\Desktop\master\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\all_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FD6FCD-252C-493F-A28A-A2ACC65BCD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9305E953-7ABD-4A66-B99D-99354A74EBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="0" windowWidth="21840" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2647,7 +2647,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2657,6 +2657,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2697,7 +2709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2711,12 +2723,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2996,93 +3013,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="S100" sqref="S100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.4140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.9140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="20.9140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.9140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.25" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="20.9140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="20.9140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="20.9140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.08203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>839</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="O1" s="9" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>840</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="S1" s="9" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="S1" s="11" t="s">
         <v>841</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="X1" s="9" t="s">
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="X1" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AB1" s="9" t="s">
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AB1" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AF1" s="9" t="s">
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AF1" s="11" t="s">
         <v>733</v>
       </c>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AK1" s="9" t="s">
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AK1" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
     </row>
-    <row r="2" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>844</v>
       </c>
@@ -3171,7 +3188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>830</v>
       </c>
@@ -3247,7 +3264,7 @@
       <c r="AG3" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AH3" s="12" t="s">
         <v>687</v>
       </c>
       <c r="AJ3" t="s">
@@ -3256,11 +3273,11 @@
       <c r="AK3" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AL3" s="12" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>818</v>
       </c>
@@ -3336,7 +3353,7 @@
       <c r="AG4" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" s="13" t="s">
         <v>688</v>
       </c>
       <c r="AJ4" t="s">
@@ -3345,11 +3362,11 @@
       <c r="AK4" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" s="13" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>818</v>
       </c>
@@ -3425,7 +3442,7 @@
       <c r="AG5" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AH5" s="12" t="s">
         <v>689</v>
       </c>
       <c r="AJ5" t="s">
@@ -3434,11 +3451,11 @@
       <c r="AK5" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AL5" s="12" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>818</v>
       </c>
@@ -3514,7 +3531,7 @@
       <c r="AG6" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AH6" s="12" t="s">
         <v>691</v>
       </c>
       <c r="AJ6" t="s">
@@ -3523,11 +3540,11 @@
       <c r="AK6" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AL6" s="14" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>818</v>
       </c>
@@ -3603,7 +3620,7 @@
       <c r="AG7" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AH7" s="12" t="s">
         <v>693</v>
       </c>
       <c r="AJ7" t="s">
@@ -3612,11 +3629,11 @@
       <c r="AK7" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AL7" s="12" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>818</v>
       </c>
@@ -3692,7 +3709,7 @@
       <c r="AG8" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AH8" s="12" t="s">
         <v>694</v>
       </c>
       <c r="AJ8" t="s">
@@ -3701,11 +3718,11 @@
       <c r="AK8" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AL8" s="12" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>818</v>
       </c>
@@ -3785,7 +3802,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>818</v>
       </c>
@@ -3865,7 +3882,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>834</v>
       </c>
@@ -3875,10 +3892,10 @@
       <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G11" t="s">
@@ -3887,34 +3904,34 @@
       <c r="H11" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="12" t="s">
         <v>171</v>
       </c>
       <c r="K11" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="12" t="s">
         <v>263</v>
       </c>
       <c r="O11" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="12" t="s">
         <v>332</v>
       </c>
       <c r="S11" t="s">
         <v>431</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="U11" s="12" t="s">
         <v>433</v>
       </c>
       <c r="X11" t="s">
@@ -3923,7 +3940,7 @@
       <c r="Y11" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="Z11" s="12" t="s">
         <v>553</v>
       </c>
       <c r="AB11" t="s">
@@ -3941,7 +3958,7 @@
       <c r="AG11" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AH11" s="12" t="s">
         <v>695</v>
       </c>
       <c r="AJ11" t="s">
@@ -3950,11 +3967,11 @@
       <c r="AK11" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="AL11" s="2" t="s">
+      <c r="AL11" s="12" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>818</v>
       </c>
@@ -3964,10 +3981,10 @@
       <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="12" t="s">
         <v>32</v>
       </c>
       <c r="G12" t="s">
@@ -3976,34 +3993,34 @@
       <c r="H12" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="12" t="s">
         <v>173</v>
       </c>
       <c r="K12" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="12" t="s">
         <v>265</v>
       </c>
       <c r="O12" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="12" t="s">
         <v>334</v>
       </c>
       <c r="S12" t="s">
         <v>434</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="U12" s="12" t="s">
         <v>436</v>
       </c>
       <c r="X12" t="s">
@@ -4012,7 +4029,7 @@
       <c r="Y12" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="Z12" s="12" t="s">
         <v>556</v>
       </c>
       <c r="AB12" t="s">
@@ -4030,7 +4047,7 @@
       <c r="AG12" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="AH12" s="2" t="s">
+      <c r="AH12" s="12" t="s">
         <v>696</v>
       </c>
       <c r="AJ12" t="s">
@@ -4039,11 +4056,11 @@
       <c r="AK12" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="AL12" s="2" t="s">
+      <c r="AL12" s="12" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>818</v>
       </c>
@@ -4053,10 +4070,10 @@
       <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G13" t="s">
@@ -4065,40 +4082,41 @@
       <c r="H13" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K13" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="12" t="s">
         <v>267</v>
       </c>
       <c r="O13" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="12" t="s">
         <v>336</v>
       </c>
       <c r="S13" t="s">
         <v>437</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="T13" s="9" t="s">
         <v>438</v>
       </c>
+      <c r="U13" s="14"/>
       <c r="X13" t="s">
         <v>557</v>
       </c>
       <c r="Y13" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="Z13" s="12" t="s">
         <v>559</v>
       </c>
       <c r="AB13" t="s">
@@ -4116,7 +4134,7 @@
       <c r="AG13" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="AH13" s="2" t="s">
+      <c r="AH13" s="12" t="s">
         <v>697</v>
       </c>
       <c r="AJ13" t="s">
@@ -4125,11 +4143,11 @@
       <c r="AK13" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="AL13" s="2" t="s">
+      <c r="AL13" s="12" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>818</v>
       </c>
@@ -4139,10 +4157,10 @@
       <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="12" t="s">
         <v>38</v>
       </c>
       <c r="G14" t="s">
@@ -4151,34 +4169,34 @@
       <c r="H14" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="12" t="s">
         <v>176</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="12" t="s">
         <v>269</v>
       </c>
       <c r="O14" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="12" t="s">
         <v>338</v>
       </c>
       <c r="S14" t="s">
         <v>439</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="T14" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="U14" s="12" t="s">
         <v>441</v>
       </c>
       <c r="X14" t="s">
@@ -4187,7 +4205,7 @@
       <c r="Y14" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="Z14" s="2" t="s">
+      <c r="Z14" s="12" t="s">
         <v>562</v>
       </c>
       <c r="AB14" t="s">
@@ -4205,7 +4223,7 @@
       <c r="AG14" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="AH14" s="2" t="s">
+      <c r="AH14" s="12" t="s">
         <v>698</v>
       </c>
       <c r="AJ14" t="s">
@@ -4214,11 +4232,11 @@
       <c r="AK14" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="AL14" s="2" t="s">
+      <c r="AL14" s="12" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>818</v>
       </c>
@@ -4228,10 +4246,10 @@
       <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G15" t="s">
@@ -4240,34 +4258,34 @@
       <c r="H15" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="12" t="s">
         <v>179</v>
       </c>
       <c r="K15" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="12" t="s">
         <v>271</v>
       </c>
       <c r="O15" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="12" t="s">
         <v>340</v>
       </c>
       <c r="S15" t="s">
         <v>442</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T15" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="U15" s="12" t="s">
         <v>444</v>
       </c>
       <c r="X15" t="s">
@@ -4276,7 +4294,7 @@
       <c r="Y15" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="Z15" s="2" t="s">
+      <c r="Z15" s="12" t="s">
         <v>564</v>
       </c>
       <c r="AB15" t="s">
@@ -4294,7 +4312,7 @@
       <c r="AG15" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="AH15" s="2" t="s">
+      <c r="AH15" s="12" t="s">
         <v>699</v>
       </c>
       <c r="AJ15" t="s">
@@ -4303,11 +4321,11 @@
       <c r="AK15" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="AL15" s="2" t="s">
+      <c r="AL15" s="12" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>818</v>
       </c>
@@ -4317,10 +4335,10 @@
       <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G16" t="s">
@@ -4329,34 +4347,34 @@
       <c r="H16" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="12" t="s">
         <v>181</v>
       </c>
       <c r="K16" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="12" t="s">
         <v>273</v>
       </c>
       <c r="O16" t="s">
         <v>341</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="12" t="s">
         <v>343</v>
       </c>
       <c r="S16" t="s">
         <v>445</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="T16" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="U16" s="12" t="s">
         <v>447</v>
       </c>
       <c r="X16" t="s">
@@ -4365,7 +4383,7 @@
       <c r="Y16" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="Z16" s="12" t="s">
         <v>566</v>
       </c>
       <c r="AB16" t="s">
@@ -4383,7 +4401,7 @@
       <c r="AG16" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="AH16" s="2" t="s">
+      <c r="AH16" s="12" t="s">
         <v>700</v>
       </c>
       <c r="AJ16" t="s">
@@ -4392,11 +4410,11 @@
       <c r="AK16" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="AL16" s="2" t="s">
+      <c r="AL16" s="12" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>818</v>
       </c>
@@ -4476,7 +4494,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>818</v>
       </c>
@@ -4556,7 +4574,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>835</v>
       </c>
@@ -4566,10 +4584,10 @@
       <c r="C19" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="13" t="s">
         <v>51</v>
       </c>
       <c r="G19" t="s">
@@ -4578,13 +4596,13 @@
       <c r="H19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="13" t="s">
         <v>185</v>
       </c>
       <c r="K19" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="9" t="s">
         <v>50</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -4602,10 +4620,10 @@
       <c r="S19" t="s">
         <v>448</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="T19" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="U19" s="12" t="s">
         <v>450</v>
       </c>
       <c r="X19" t="s">
@@ -4645,7 +4663,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>818</v>
       </c>
@@ -4655,10 +4673,10 @@
       <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G20" t="s">
@@ -4667,13 +4685,13 @@
       <c r="H20" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="12" t="s">
         <v>187</v>
       </c>
       <c r="K20" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="9" t="s">
         <v>277</v>
       </c>
       <c r="M20" s="2" t="s">
@@ -4691,10 +4709,10 @@
       <c r="S20" t="s">
         <v>451</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T20" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="U20" s="12" t="s">
         <v>453</v>
       </c>
       <c r="X20" t="s">
@@ -4734,7 +4752,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>818</v>
       </c>
@@ -4744,10 +4762,10 @@
       <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="12" t="s">
         <v>57</v>
       </c>
       <c r="G21" t="s">
@@ -4756,13 +4774,13 @@
       <c r="H21" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="12" t="s">
         <v>190</v>
       </c>
       <c r="K21" t="s">
         <v>188</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="9" t="s">
         <v>56</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -4780,10 +4798,10 @@
       <c r="S21" t="s">
         <v>454</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T21" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="U21" s="12" t="s">
         <v>456</v>
       </c>
       <c r="X21" t="s">
@@ -4823,7 +4841,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>818</v>
       </c>
@@ -4833,10 +4851,10 @@
       <c r="C22" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="12" t="s">
         <v>60</v>
       </c>
       <c r="G22" t="s">
@@ -4845,13 +4863,13 @@
       <c r="H22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="12" t="s">
         <v>191</v>
       </c>
       <c r="K22" t="s">
         <v>58</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="9" t="s">
         <v>59</v>
       </c>
       <c r="M22" s="2" t="s">
@@ -4869,10 +4887,10 @@
       <c r="S22" t="s">
         <v>457</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T22" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="U22" s="12" t="s">
         <v>459</v>
       </c>
       <c r="X22" t="s">
@@ -4912,7 +4930,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>818</v>
       </c>
@@ -4922,10 +4940,10 @@
       <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="12" t="s">
         <v>63</v>
       </c>
       <c r="G23" t="s">
@@ -4934,13 +4952,13 @@
       <c r="H23" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="12" t="s">
         <v>193</v>
       </c>
       <c r="K23" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="9" t="s">
         <v>62</v>
       </c>
       <c r="M23" s="2" t="s">
@@ -4958,10 +4976,10 @@
       <c r="S23" t="s">
         <v>460</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="T23" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="U23" s="12" t="s">
         <v>462</v>
       </c>
       <c r="X23" t="s">
@@ -5001,7 +5019,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>818</v>
       </c>
@@ -5011,10 +5029,10 @@
       <c r="C24" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="12" t="s">
         <v>66</v>
       </c>
       <c r="G24" t="s">
@@ -5023,13 +5041,13 @@
       <c r="H24" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="12" t="s">
         <v>195</v>
       </c>
       <c r="K24" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="10" t="s">
         <v>282</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -5047,10 +5065,10 @@
       <c r="S24" t="s">
         <v>463</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="T24" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="U24" s="12" t="s">
         <v>465</v>
       </c>
       <c r="X24" t="s">
@@ -5090,7 +5108,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>818</v>
       </c>
@@ -5170,7 +5188,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>818</v>
       </c>
@@ -5250,7 +5268,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>833</v>
       </c>
@@ -5263,7 +5281,7 @@
       <c r="D27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="12" t="s">
         <v>73</v>
       </c>
       <c r="G27" t="s">
@@ -5287,10 +5305,10 @@
       <c r="O27" t="s">
         <v>71</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="P27" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="Q27" s="12" t="s">
         <v>364</v>
       </c>
       <c r="S27" t="s">
@@ -5308,7 +5326,7 @@
       <c r="Y27" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="Z27" s="2" t="s">
+      <c r="Z27" s="12" t="s">
         <v>591</v>
       </c>
       <c r="AB27" t="s">
@@ -5339,7 +5357,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>818</v>
       </c>
@@ -5352,7 +5370,7 @@
       <c r="D28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G28" t="s">
@@ -5376,10 +5394,10 @@
       <c r="O28" t="s">
         <v>74</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="P28" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="Q28" s="12" t="s">
         <v>366</v>
       </c>
       <c r="S28" t="s">
@@ -5397,7 +5415,7 @@
       <c r="Y28" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="Z28" s="2" t="s">
+      <c r="Z28" s="12" t="s">
         <v>593</v>
       </c>
       <c r="AB28" t="s">
@@ -5428,7 +5446,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>818</v>
       </c>
@@ -5441,7 +5459,7 @@
       <c r="D29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="13" t="s">
         <v>79</v>
       </c>
       <c r="G29" t="s">
@@ -5465,10 +5483,10 @@
       <c r="O29" t="s">
         <v>77</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="13" t="s">
         <v>367</v>
       </c>
       <c r="S29" t="s">
@@ -5486,7 +5504,7 @@
       <c r="Y29" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="Z29" s="2" t="s">
+      <c r="Z29" s="12" t="s">
         <v>596</v>
       </c>
       <c r="AB29" t="s">
@@ -5517,7 +5535,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>818</v>
       </c>
@@ -5530,7 +5548,7 @@
       <c r="D30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="12" t="s">
         <v>82</v>
       </c>
       <c r="G30" t="s">
@@ -5554,10 +5572,10 @@
       <c r="O30" t="s">
         <v>368</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="P30" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="Q30" s="12" t="s">
         <v>370</v>
       </c>
       <c r="S30" t="s">
@@ -5575,7 +5593,7 @@
       <c r="Y30" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Z30" s="14" t="s">
         <v>289</v>
       </c>
       <c r="AB30" t="s">
@@ -5606,7 +5624,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>818</v>
       </c>
@@ -5619,7 +5637,7 @@
       <c r="D31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="12" t="s">
         <v>85</v>
       </c>
       <c r="G31" t="s">
@@ -5643,10 +5661,10 @@
       <c r="O31" t="s">
         <v>371</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="P31" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="Q31" s="12" t="s">
         <v>373</v>
       </c>
       <c r="S31" t="s">
@@ -5664,7 +5682,7 @@
       <c r="Y31" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="Z31" s="2" t="s">
+      <c r="Z31" s="12" t="s">
         <v>599</v>
       </c>
       <c r="AB31" t="s">
@@ -5695,7 +5713,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>818</v>
       </c>
@@ -5708,7 +5726,7 @@
       <c r="D32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="12" t="s">
         <v>88</v>
       </c>
       <c r="G32" t="s">
@@ -5732,10 +5750,10 @@
       <c r="O32" t="s">
         <v>374</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="P32" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="Q32" s="12" t="s">
         <v>376</v>
       </c>
       <c r="S32" t="s">
@@ -5753,7 +5771,7 @@
       <c r="Y32" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="Z32" s="3" t="s">
+      <c r="Z32" s="13" t="s">
         <v>601</v>
       </c>
       <c r="AB32" t="s">
@@ -5784,7 +5802,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>818</v>
       </c>
@@ -5864,7 +5882,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>818</v>
       </c>
@@ -5944,7 +5962,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>836</v>
       </c>
@@ -5957,7 +5975,7 @@
       <c r="D35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="12" t="s">
         <v>95</v>
       </c>
       <c r="G35" t="s">
@@ -5984,7 +6002,7 @@
       <c r="P35" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="Q35" s="12" t="s">
         <v>380</v>
       </c>
       <c r="S35" t="s">
@@ -6002,7 +6020,7 @@
       <c r="Y35" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="Z35" s="2" t="s">
+      <c r="Z35" s="12" t="s">
         <v>605</v>
       </c>
       <c r="AB35" t="s">
@@ -6029,11 +6047,11 @@
       <c r="AK35" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="AL35" s="2" t="s">
+      <c r="AL35" s="12" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>818</v>
       </c>
@@ -6046,7 +6064,7 @@
       <c r="D36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="12" t="s">
         <v>98</v>
       </c>
       <c r="G36" t="s">
@@ -6073,7 +6091,7 @@
       <c r="P36" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="Q36" s="12" t="s">
         <v>382</v>
       </c>
       <c r="S36" t="s">
@@ -6091,7 +6109,7 @@
       <c r="Y36" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="Z36" s="2" t="s">
+      <c r="Z36" s="12" t="s">
         <v>607</v>
       </c>
       <c r="AB36" t="s">
@@ -6118,11 +6136,11 @@
       <c r="AK36" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="AL36" s="3" t="s">
+      <c r="AL36" s="13" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>818</v>
       </c>
@@ -6135,7 +6153,7 @@
       <c r="D37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="12" t="s">
         <v>101</v>
       </c>
       <c r="G37" t="s">
@@ -6162,7 +6180,7 @@
       <c r="P37" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="Q37" s="12" t="s">
         <v>385</v>
       </c>
       <c r="S37" t="s">
@@ -6180,7 +6198,7 @@
       <c r="Y37" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="Z37" s="2" t="s">
+      <c r="Z37" s="12" t="s">
         <v>610</v>
       </c>
       <c r="AB37" t="s">
@@ -6207,11 +6225,11 @@
       <c r="AK37" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="AL37" s="2" t="s">
+      <c r="AL37" s="12" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>818</v>
       </c>
@@ -6224,7 +6242,7 @@
       <c r="D38" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="12" t="s">
         <v>104</v>
       </c>
       <c r="G38" t="s">
@@ -6251,7 +6269,7 @@
       <c r="P38" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="Q38" s="12" t="s">
         <v>388</v>
       </c>
       <c r="S38" t="s">
@@ -6269,7 +6287,7 @@
       <c r="Y38" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="Z38" s="2" t="s">
+      <c r="Z38" s="12" t="s">
         <v>612</v>
       </c>
       <c r="AB38" t="s">
@@ -6296,11 +6314,11 @@
       <c r="AK38" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="AL38" s="2" t="s">
+      <c r="AL38" s="12" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>818</v>
       </c>
@@ -6313,7 +6331,7 @@
       <c r="D39" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="12" t="s">
         <v>107</v>
       </c>
       <c r="G39" t="s">
@@ -6340,7 +6358,7 @@
       <c r="P39" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Q39" s="12" t="s">
         <v>390</v>
       </c>
       <c r="S39" t="s">
@@ -6358,7 +6376,7 @@
       <c r="Y39" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="Z39" s="2" t="s">
+      <c r="Z39" s="12" t="s">
         <v>614</v>
       </c>
       <c r="AB39" t="s">
@@ -6385,11 +6403,11 @@
       <c r="AK39" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="AL39" s="2" t="s">
+      <c r="AL39" s="12" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>818</v>
       </c>
@@ -6402,7 +6420,7 @@
       <c r="D40" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="13" t="s">
         <v>110</v>
       </c>
       <c r="G40" t="s">
@@ -6429,7 +6447,7 @@
       <c r="P40" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="Q40" s="13" t="s">
         <v>392</v>
       </c>
       <c r="S40" t="s">
@@ -6447,7 +6465,7 @@
       <c r="Y40" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="Z40" s="3" t="s">
+      <c r="Z40" s="13" t="s">
         <v>225</v>
       </c>
       <c r="AB40" t="s">
@@ -6474,11 +6492,11 @@
       <c r="AK40" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="AL40" s="2" t="s">
+      <c r="AL40" s="12" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>818</v>
       </c>
@@ -6558,7 +6576,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>818</v>
       </c>
@@ -6638,7 +6656,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>832</v>
       </c>
@@ -6727,7 +6745,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>818</v>
       </c>
@@ -6816,7 +6834,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>818</v>
       </c>
@@ -6905,7 +6923,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>818</v>
       </c>
@@ -6994,7 +7012,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>818</v>
       </c>
@@ -7083,7 +7101,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>818</v>
       </c>
@@ -7172,7 +7190,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>818</v>
       </c>
@@ -7252,7 +7270,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>818</v>
       </c>
@@ -7332,7 +7350,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>831</v>
       </c>
@@ -7421,7 +7439,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>818</v>
       </c>
@@ -7510,7 +7528,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>818</v>
       </c>
@@ -7599,7 +7617,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>818</v>
       </c>
@@ -7688,7 +7706,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>818</v>
       </c>
@@ -7777,7 +7795,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>818</v>
       </c>
@@ -7866,7 +7884,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>818</v>
       </c>
@@ -7946,7 +7964,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>818</v>
       </c>
@@ -8026,7 +8044,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>818</v>
       </c>
@@ -8088,7 +8106,7 @@
         <v>1.6190476190476191</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>818</v>
       </c>
@@ -8162,7 +8180,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>24</v>
       </c>

--- a/all_data/all_classification.xlsx
+++ b/all_data/all_classification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\all_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9305E953-7ABD-4A66-B99D-99354A74EBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789D685B-8ED6-4CD3-94B6-97B67D1A3FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2725,12 +2725,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3014,7 +3014,7 @@
   <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="S100" sqref="S100"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3053,51 +3053,51 @@
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>837</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>838</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="O1" s="14" t="s">
         <v>840</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="S1" s="11" t="s">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="S1" s="14" t="s">
         <v>841</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="X1" s="11" t="s">
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="X1" s="14" t="s">
         <v>842</v>
       </c>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AB1" s="11" t="s">
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AB1" s="14" t="s">
         <v>843</v>
       </c>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AF1" s="11" t="s">
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AF1" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AK1" s="11" t="s">
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AK1" s="14" t="s">
         <v>817</v>
       </c>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3264,7 +3264,7 @@
       <c r="AG3" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AH3" s="11" t="s">
         <v>687</v>
       </c>
       <c r="AJ3" t="s">
@@ -3273,7 +3273,7 @@
       <c r="AK3" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AL3" s="11" t="s">
         <v>735</v>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       <c r="AG4" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="AH4" s="13" t="s">
+      <c r="AH4" s="12" t="s">
         <v>688</v>
       </c>
       <c r="AJ4" t="s">
@@ -3362,7 +3362,7 @@
       <c r="AK4" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="AL4" s="13" t="s">
+      <c r="AL4" s="12" t="s">
         <v>736</v>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       <c r="AG5" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="AH5" s="12" t="s">
+      <c r="AH5" s="11" t="s">
         <v>689</v>
       </c>
       <c r="AJ5" t="s">
@@ -3451,7 +3451,7 @@
       <c r="AK5" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="AL5" s="12" t="s">
+      <c r="AL5" s="11" t="s">
         <v>738</v>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       <c r="AG6" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="AH6" s="12" t="s">
+      <c r="AH6" s="11" t="s">
         <v>691</v>
       </c>
       <c r="AJ6" t="s">
@@ -3540,7 +3540,7 @@
       <c r="AK6" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="AL6" s="14" t="s">
+      <c r="AL6" s="13" t="s">
         <v>540</v>
       </c>
     </row>
@@ -3620,7 +3620,7 @@
       <c r="AG7" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="AH7" s="12" t="s">
+      <c r="AH7" s="11" t="s">
         <v>693</v>
       </c>
       <c r="AJ7" t="s">
@@ -3629,7 +3629,7 @@
       <c r="AK7" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="AL7" s="12" t="s">
+      <c r="AL7" s="11" t="s">
         <v>741</v>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
       <c r="AG8" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="AH8" s="12" t="s">
+      <c r="AH8" s="11" t="s">
         <v>694</v>
       </c>
       <c r="AJ8" t="s">
@@ -3718,7 +3718,7 @@
       <c r="AK8" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="AL8" s="12" t="s">
+      <c r="AL8" s="11" t="s">
         <v>744</v>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
       <c r="D11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G11" t="s">
@@ -3904,7 +3904,7 @@
       <c r="H11" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>171</v>
       </c>
       <c r="K11" t="s">
@@ -3913,7 +3913,7 @@
       <c r="L11" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="11" t="s">
         <v>263</v>
       </c>
       <c r="O11" t="s">
@@ -3922,7 +3922,7 @@
       <c r="P11" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="Q11" s="11" t="s">
         <v>332</v>
       </c>
       <c r="S11" t="s">
@@ -3931,7 +3931,7 @@
       <c r="T11" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="U11" s="12" t="s">
+      <c r="U11" s="11" t="s">
         <v>433</v>
       </c>
       <c r="X11" t="s">
@@ -3940,7 +3940,7 @@
       <c r="Y11" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="Z11" s="12" t="s">
+      <c r="Z11" s="11" t="s">
         <v>553</v>
       </c>
       <c r="AB11" t="s">
@@ -3958,7 +3958,7 @@
       <c r="AG11" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="AH11" s="12" t="s">
+      <c r="AH11" s="11" t="s">
         <v>695</v>
       </c>
       <c r="AJ11" t="s">
@@ -3967,7 +3967,7 @@
       <c r="AK11" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="AL11" s="12" t="s">
+      <c r="AL11" s="11" t="s">
         <v>747</v>
       </c>
     </row>
@@ -3984,7 +3984,7 @@
       <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G12" t="s">
@@ -3993,7 +3993,7 @@
       <c r="H12" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>173</v>
       </c>
       <c r="K12" t="s">
@@ -4002,7 +4002,7 @@
       <c r="L12" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="11" t="s">
         <v>265</v>
       </c>
       <c r="O12" t="s">
@@ -4011,7 +4011,7 @@
       <c r="P12" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="Q12" s="11" t="s">
         <v>334</v>
       </c>
       <c r="S12" t="s">
@@ -4020,7 +4020,7 @@
       <c r="T12" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="U12" s="12" t="s">
+      <c r="U12" s="11" t="s">
         <v>436</v>
       </c>
       <c r="X12" t="s">
@@ -4029,7 +4029,7 @@
       <c r="Y12" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="Z12" s="12" t="s">
+      <c r="Z12" s="11" t="s">
         <v>556</v>
       </c>
       <c r="AB12" t="s">
@@ -4047,7 +4047,7 @@
       <c r="AG12" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="AH12" s="12" t="s">
+      <c r="AH12" s="11" t="s">
         <v>696</v>
       </c>
       <c r="AJ12" t="s">
@@ -4056,7 +4056,7 @@
       <c r="AK12" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="AL12" s="12" t="s">
+      <c r="AL12" s="11" t="s">
         <v>749</v>
       </c>
     </row>
@@ -4073,7 +4073,7 @@
       <c r="D13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G13" t="s">
@@ -4082,7 +4082,7 @@
       <c r="H13" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>35</v>
       </c>
       <c r="K13" t="s">
@@ -4091,7 +4091,7 @@
       <c r="L13" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="11" t="s">
         <v>267</v>
       </c>
       <c r="O13" t="s">
@@ -4100,7 +4100,7 @@
       <c r="P13" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="11" t="s">
         <v>336</v>
       </c>
       <c r="S13" t="s">
@@ -4109,14 +4109,14 @@
       <c r="T13" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="U13" s="14"/>
+      <c r="U13" s="13"/>
       <c r="X13" t="s">
         <v>557</v>
       </c>
       <c r="Y13" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="Z13" s="12" t="s">
+      <c r="Z13" s="11" t="s">
         <v>559</v>
       </c>
       <c r="AB13" t="s">
@@ -4134,7 +4134,7 @@
       <c r="AG13" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="AH13" s="12" t="s">
+      <c r="AH13" s="11" t="s">
         <v>697</v>
       </c>
       <c r="AJ13" t="s">
@@ -4143,7 +4143,7 @@
       <c r="AK13" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="AL13" s="12" t="s">
+      <c r="AL13" s="11" t="s">
         <v>751</v>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
       <c r="D14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G14" t="s">
@@ -4169,7 +4169,7 @@
       <c r="H14" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="11" t="s">
         <v>176</v>
       </c>
       <c r="K14" t="s">
@@ -4178,7 +4178,7 @@
       <c r="L14" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="11" t="s">
         <v>269</v>
       </c>
       <c r="O14" t="s">
@@ -4187,7 +4187,7 @@
       <c r="P14" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="Q14" s="11" t="s">
         <v>338</v>
       </c>
       <c r="S14" t="s">
@@ -4196,7 +4196,7 @@
       <c r="T14" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="U14" s="12" t="s">
+      <c r="U14" s="11" t="s">
         <v>441</v>
       </c>
       <c r="X14" t="s">
@@ -4205,7 +4205,7 @@
       <c r="Y14" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="Z14" s="12" t="s">
+      <c r="Z14" s="11" t="s">
         <v>562</v>
       </c>
       <c r="AB14" t="s">
@@ -4223,7 +4223,7 @@
       <c r="AG14" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="AH14" s="12" t="s">
+      <c r="AH14" s="11" t="s">
         <v>698</v>
       </c>
       <c r="AJ14" t="s">
@@ -4232,7 +4232,7 @@
       <c r="AK14" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="AL14" s="12" t="s">
+      <c r="AL14" s="11" t="s">
         <v>753</v>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       <c r="D15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G15" t="s">
@@ -4258,7 +4258,7 @@
       <c r="H15" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="11" t="s">
         <v>179</v>
       </c>
       <c r="K15" t="s">
@@ -4267,7 +4267,7 @@
       <c r="L15" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="11" t="s">
         <v>271</v>
       </c>
       <c r="O15" t="s">
@@ -4276,7 +4276,7 @@
       <c r="P15" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="11" t="s">
         <v>340</v>
       </c>
       <c r="S15" t="s">
@@ -4285,7 +4285,7 @@
       <c r="T15" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="U15" s="12" t="s">
+      <c r="U15" s="11" t="s">
         <v>444</v>
       </c>
       <c r="X15" t="s">
@@ -4294,7 +4294,7 @@
       <c r="Y15" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="Z15" s="12" t="s">
+      <c r="Z15" s="11" t="s">
         <v>564</v>
       </c>
       <c r="AB15" t="s">
@@ -4312,7 +4312,7 @@
       <c r="AG15" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="AH15" s="12" t="s">
+      <c r="AH15" s="11" t="s">
         <v>699</v>
       </c>
       <c r="AJ15" t="s">
@@ -4321,7 +4321,7 @@
       <c r="AK15" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="AL15" s="12" t="s">
+      <c r="AL15" s="11" t="s">
         <v>755</v>
       </c>
     </row>
@@ -4338,7 +4338,7 @@
       <c r="D16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>44</v>
       </c>
       <c r="G16" t="s">
@@ -4347,7 +4347,7 @@
       <c r="H16" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="11" t="s">
         <v>181</v>
       </c>
       <c r="K16" t="s">
@@ -4356,7 +4356,7 @@
       <c r="L16" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="11" t="s">
         <v>273</v>
       </c>
       <c r="O16" t="s">
@@ -4365,7 +4365,7 @@
       <c r="P16" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="Q16" s="11" t="s">
         <v>343</v>
       </c>
       <c r="S16" t="s">
@@ -4374,7 +4374,7 @@
       <c r="T16" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="U16" s="12" t="s">
+      <c r="U16" s="11" t="s">
         <v>447</v>
       </c>
       <c r="X16" t="s">
@@ -4383,7 +4383,7 @@
       <c r="Y16" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="Z16" s="12" t="s">
+      <c r="Z16" s="11" t="s">
         <v>566</v>
       </c>
       <c r="AB16" t="s">
@@ -4401,7 +4401,7 @@
       <c r="AG16" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="AH16" s="12" t="s">
+      <c r="AH16" s="11" t="s">
         <v>700</v>
       </c>
       <c r="AJ16" t="s">
@@ -4410,7 +4410,7 @@
       <c r="AK16" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="AL16" s="12" t="s">
+      <c r="AL16" s="11" t="s">
         <v>757</v>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       <c r="D19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>51</v>
       </c>
       <c r="G19" t="s">
@@ -4596,7 +4596,7 @@
       <c r="H19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="12" t="s">
         <v>185</v>
       </c>
       <c r="K19" t="s">
@@ -4623,7 +4623,7 @@
       <c r="T19" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="U19" s="12" t="s">
+      <c r="U19" s="11" t="s">
         <v>450</v>
       </c>
       <c r="X19" t="s">
@@ -4676,7 +4676,7 @@
       <c r="D20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>54</v>
       </c>
       <c r="G20" t="s">
@@ -4685,7 +4685,7 @@
       <c r="H20" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="11" t="s">
         <v>187</v>
       </c>
       <c r="K20" t="s">
@@ -4712,7 +4712,7 @@
       <c r="T20" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="U20" s="12" t="s">
+      <c r="U20" s="11" t="s">
         <v>453</v>
       </c>
       <c r="X20" t="s">
@@ -4765,7 +4765,7 @@
       <c r="D21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>57</v>
       </c>
       <c r="G21" t="s">
@@ -4774,7 +4774,7 @@
       <c r="H21" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="11" t="s">
         <v>190</v>
       </c>
       <c r="K21" t="s">
@@ -4801,7 +4801,7 @@
       <c r="T21" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="U21" s="12" t="s">
+      <c r="U21" s="11" t="s">
         <v>456</v>
       </c>
       <c r="X21" t="s">
@@ -4854,7 +4854,7 @@
       <c r="D22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G22" t="s">
@@ -4863,7 +4863,7 @@
       <c r="H22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="11" t="s">
         <v>191</v>
       </c>
       <c r="K22" t="s">
@@ -4890,7 +4890,7 @@
       <c r="T22" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="U22" s="12" t="s">
+      <c r="U22" s="11" t="s">
         <v>459</v>
       </c>
       <c r="X22" t="s">
@@ -4943,7 +4943,7 @@
       <c r="D23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G23" t="s">
@@ -4952,7 +4952,7 @@
       <c r="H23" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="11" t="s">
         <v>193</v>
       </c>
       <c r="K23" t="s">
@@ -4979,7 +4979,7 @@
       <c r="T23" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="U23" s="12" t="s">
+      <c r="U23" s="11" t="s">
         <v>462</v>
       </c>
       <c r="X23" t="s">
@@ -5032,7 +5032,7 @@
       <c r="D24" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G24" t="s">
@@ -5041,7 +5041,7 @@
       <c r="H24" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="11" t="s">
         <v>195</v>
       </c>
       <c r="K24" t="s">
@@ -5068,7 +5068,7 @@
       <c r="T24" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="U24" s="12" t="s">
+      <c r="U24" s="11" t="s">
         <v>465</v>
       </c>
       <c r="X24" t="s">
@@ -5281,7 +5281,7 @@
       <c r="D27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>73</v>
       </c>
       <c r="G27" t="s">
@@ -5308,7 +5308,7 @@
       <c r="P27" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="Q27" s="12" t="s">
+      <c r="Q27" s="11" t="s">
         <v>364</v>
       </c>
       <c r="S27" t="s">
@@ -5326,7 +5326,7 @@
       <c r="Y27" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="Z27" s="12" t="s">
+      <c r="Z27" s="11" t="s">
         <v>591</v>
       </c>
       <c r="AB27" t="s">
@@ -5370,7 +5370,7 @@
       <c r="D28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>76</v>
       </c>
       <c r="G28" t="s">
@@ -5397,7 +5397,7 @@
       <c r="P28" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="Q28" s="12" t="s">
+      <c r="Q28" s="11" t="s">
         <v>366</v>
       </c>
       <c r="S28" t="s">
@@ -5415,7 +5415,7 @@
       <c r="Y28" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="Z28" s="12" t="s">
+      <c r="Z28" s="11" t="s">
         <v>593</v>
       </c>
       <c r="AB28" t="s">
@@ -5459,7 +5459,7 @@
       <c r="D29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>79</v>
       </c>
       <c r="G29" t="s">
@@ -5486,7 +5486,7 @@
       <c r="P29" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="Q29" s="13" t="s">
+      <c r="Q29" s="12" t="s">
         <v>367</v>
       </c>
       <c r="S29" t="s">
@@ -5504,7 +5504,7 @@
       <c r="Y29" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="Z29" s="12" t="s">
+      <c r="Z29" s="11" t="s">
         <v>596</v>
       </c>
       <c r="AB29" t="s">
@@ -5548,7 +5548,7 @@
       <c r="D30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G30" t="s">
@@ -5575,7 +5575,7 @@
       <c r="P30" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="Q30" s="12" t="s">
+      <c r="Q30" s="11" t="s">
         <v>370</v>
       </c>
       <c r="S30" t="s">
@@ -5593,7 +5593,7 @@
       <c r="Y30" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="Z30" s="14" t="s">
+      <c r="Z30" s="13" t="s">
         <v>289</v>
       </c>
       <c r="AB30" t="s">
@@ -5637,7 +5637,7 @@
       <c r="D31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G31" t="s">
@@ -5664,7 +5664,7 @@
       <c r="P31" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="Q31" s="12" t="s">
+      <c r="Q31" s="11" t="s">
         <v>373</v>
       </c>
       <c r="S31" t="s">
@@ -5682,7 +5682,7 @@
       <c r="Y31" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="Z31" s="12" t="s">
+      <c r="Z31" s="11" t="s">
         <v>599</v>
       </c>
       <c r="AB31" t="s">
@@ -5726,7 +5726,7 @@
       <c r="D32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>88</v>
       </c>
       <c r="G32" t="s">
@@ -5753,7 +5753,7 @@
       <c r="P32" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="Q32" s="12" t="s">
+      <c r="Q32" s="11" t="s">
         <v>376</v>
       </c>
       <c r="S32" t="s">
@@ -5771,7 +5771,7 @@
       <c r="Y32" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="Z32" s="13" t="s">
+      <c r="Z32" s="12" t="s">
         <v>601</v>
       </c>
       <c r="AB32" t="s">
@@ -5975,7 +5975,7 @@
       <c r="D35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G35" t="s">
@@ -6002,7 +6002,7 @@
       <c r="P35" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="Q35" s="12" t="s">
+      <c r="Q35" s="11" t="s">
         <v>380</v>
       </c>
       <c r="S35" t="s">
@@ -6020,7 +6020,7 @@
       <c r="Y35" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="Z35" s="12" t="s">
+      <c r="Z35" s="11" t="s">
         <v>605</v>
       </c>
       <c r="AB35" t="s">
@@ -6047,7 +6047,7 @@
       <c r="AK35" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="AL35" s="12" t="s">
+      <c r="AL35" s="11" t="s">
         <v>788</v>
       </c>
     </row>
@@ -6064,7 +6064,7 @@
       <c r="D36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>98</v>
       </c>
       <c r="G36" t="s">
@@ -6091,7 +6091,7 @@
       <c r="P36" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="Q36" s="12" t="s">
+      <c r="Q36" s="11" t="s">
         <v>382</v>
       </c>
       <c r="S36" t="s">
@@ -6109,7 +6109,7 @@
       <c r="Y36" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="Z36" s="12" t="s">
+      <c r="Z36" s="11" t="s">
         <v>607</v>
       </c>
       <c r="AB36" t="s">
@@ -6136,7 +6136,7 @@
       <c r="AK36" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="AL36" s="13" t="s">
+      <c r="AL36" s="12" t="s">
         <v>791</v>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       <c r="D37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="11" t="s">
         <v>101</v>
       </c>
       <c r="G37" t="s">
@@ -6180,7 +6180,7 @@
       <c r="P37" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="Q37" s="12" t="s">
+      <c r="Q37" s="11" t="s">
         <v>385</v>
       </c>
       <c r="S37" t="s">
@@ -6198,7 +6198,7 @@
       <c r="Y37" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="Z37" s="12" t="s">
+      <c r="Z37" s="11" t="s">
         <v>610</v>
       </c>
       <c r="AB37" t="s">
@@ -6225,7 +6225,7 @@
       <c r="AK37" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="AL37" s="12" t="s">
+      <c r="AL37" s="11" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6242,7 +6242,7 @@
       <c r="D38" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="11" t="s">
         <v>104</v>
       </c>
       <c r="G38" t="s">
@@ -6269,7 +6269,7 @@
       <c r="P38" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="Q38" s="12" t="s">
+      <c r="Q38" s="11" t="s">
         <v>388</v>
       </c>
       <c r="S38" t="s">
@@ -6287,7 +6287,7 @@
       <c r="Y38" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="Z38" s="12" t="s">
+      <c r="Z38" s="11" t="s">
         <v>612</v>
       </c>
       <c r="AB38" t="s">
@@ -6314,7 +6314,7 @@
       <c r="AK38" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="AL38" s="12" t="s">
+      <c r="AL38" s="11" t="s">
         <v>796</v>
       </c>
     </row>
@@ -6331,7 +6331,7 @@
       <c r="D39" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="11" t="s">
         <v>107</v>
       </c>
       <c r="G39" t="s">
@@ -6358,7 +6358,7 @@
       <c r="P39" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="Q39" s="12" t="s">
+      <c r="Q39" s="11" t="s">
         <v>390</v>
       </c>
       <c r="S39" t="s">
@@ -6376,7 +6376,7 @@
       <c r="Y39" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="Z39" s="12" t="s">
+      <c r="Z39" s="11" t="s">
         <v>614</v>
       </c>
       <c r="AB39" t="s">
@@ -6403,7 +6403,7 @@
       <c r="AK39" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="AL39" s="12" t="s">
+      <c r="AL39" s="11" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6420,7 +6420,7 @@
       <c r="D40" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>110</v>
       </c>
       <c r="G40" t="s">
@@ -6447,7 +6447,7 @@
       <c r="P40" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="Q40" s="13" t="s">
+      <c r="Q40" s="12" t="s">
         <v>392</v>
       </c>
       <c r="S40" t="s">
@@ -6465,7 +6465,7 @@
       <c r="Y40" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="Z40" s="13" t="s">
+      <c r="Z40" s="12" t="s">
         <v>225</v>
       </c>
       <c r="AB40" t="s">
@@ -6492,7 +6492,7 @@
       <c r="AK40" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="AL40" s="12" t="s">
+      <c r="AL40" s="11" t="s">
         <v>801</v>
       </c>
     </row>

--- a/all_data/all_classification.xlsx
+++ b/all_data/all_classification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\all_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789D685B-8ED6-4CD3-94B6-97B67D1A3FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B90D9F-D0BA-46E1-8764-2679E72D9FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="37700" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="938">
   <si>
     <t>baseline</t>
   </si>
@@ -2581,6 +2581,283 @@
   </si>
   <si>
     <t>model_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8522,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>0.8534,(0.14%:1)</t>
+  </si>
+  <si>
+    <t>0.8525,(0.04%:2)</t>
+  </si>
+  <si>
+    <t>0.8569,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.8565,(-0.06%:3)</t>
+  </si>
+  <si>
+    <t>0.8601,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.8593,(-0.09%:3)</t>
+  </si>
+  <si>
+    <t>0.8601,(0.01%:1)</t>
+  </si>
+  <si>
+    <t>0.8547,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>0.8550,(0.03%:2)</t>
+  </si>
+  <si>
+    <t>0.8566,(0.22%:1)</t>
+  </si>
+  <si>
+    <t>0.8522,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.8488,(-0.39%:3)</t>
+  </si>
+  <si>
+    <t>0.8468,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.8471,(0.03%:1)</t>
+  </si>
+  <si>
+    <t>0.8468,(-0.01%:3)</t>
+  </si>
+  <si>
+    <t>0.3703,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.3200,(-13.58%:3)</t>
+  </si>
+  <si>
+    <t>0.3697,(-0.17%:2)</t>
+  </si>
+  <si>
+    <t>0.3668,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.3497,(-4.66%:3)</t>
+  </si>
+  <si>
+    <t>0.3686,(0.50%:1)</t>
+  </si>
+  <si>
+    <t>0.3802,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.3195,(-15.97%:3)</t>
+  </si>
+  <si>
+    <t>0.3800,(-0.06%:2)</t>
+  </si>
+  <si>
+    <t>0.3793,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.3483,(-8.17%:3)</t>
+  </si>
+  <si>
+    <t>0.3801,(0.22%:1)</t>
+  </si>
+  <si>
+    <t>0.3845,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.3271,(-14.94%:3)</t>
+  </si>
+  <si>
+    <t>0.3821,(-0.64%:2)</t>
+  </si>
+  <si>
+    <t>0.3654,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.3429,(-6.15%:3)</t>
+  </si>
+  <si>
+    <t>0.3643,(-0.29%:2)</t>
+  </si>
+  <si>
+    <t>-10.58%</t>
+  </si>
+  <si>
+    <t>0.7124,(-0.83%:3)</t>
+  </si>
+  <si>
+    <t>0.7194,(0.13%:1)</t>
+  </si>
+  <si>
+    <t>0.7117,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.7100,(-0.24%:2)</t>
+  </si>
+  <si>
+    <t>0.7096,(-0.30%:3)</t>
+  </si>
+  <si>
+    <t>0.7269,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.7262,(-0.11%:2)</t>
+  </si>
+  <si>
+    <t>0.7216,(-0.73%:3)</t>
+  </si>
+  <si>
+    <t>0.7121,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.7101,(-0.29%:3)</t>
+  </si>
+  <si>
+    <t>0.7130,(0.11%:1)</t>
+  </si>
+  <si>
+    <t>0.7144,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.7149,(0.08%:1)</t>
+  </si>
+  <si>
+    <t>0.7140,(-0.06%:3)</t>
+  </si>
+  <si>
+    <t>0.7211,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.7135,(-1.05%:3)</t>
+  </si>
+  <si>
+    <t>0.7190,(-0.28%:2)</t>
+  </si>
+  <si>
+    <t>-0.19%</t>
+  </si>
+  <si>
+    <t>0.6984,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.6879,(-1.50%:3)</t>
+  </si>
+  <si>
+    <t>0.6995,(0.16%:1)</t>
+  </si>
+  <si>
+    <t>0.6974,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.6972,(-0.03%:2)</t>
+  </si>
+  <si>
+    <t>0.6947,(-0.39%:3)</t>
+  </si>
+  <si>
+    <t>0.7278,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.7254,(-0.33%:2)</t>
+  </si>
+  <si>
+    <t>0.7241,(-0.50%:3)</t>
+  </si>
+  <si>
+    <t>0.7045,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.6999,(-0.65%:3)</t>
+  </si>
+  <si>
+    <t>0.7034,(-0.15%:2)</t>
+  </si>
+  <si>
+    <t>0.7087,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.7074,(-0.19%:3)</t>
+  </si>
+  <si>
+    <t>0.7081,(-0.08%:2)</t>
+  </si>
+  <si>
+    <t>0.7201,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.7150,(-0.71%:3)</t>
+  </si>
+  <si>
+    <t>0.7182,(-0.27%:2)</t>
+  </si>
+  <si>
+    <t>-0.57%</t>
+  </si>
+  <si>
+    <t>0.8313,(-0.05%:3)</t>
+  </si>
+  <si>
+    <t>0.8323,(0.08%:1)</t>
+  </si>
+  <si>
+    <t>0.8318,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.8289,(-0.35%:3)</t>
+  </si>
+  <si>
+    <t>0.8308,(-0.12%:2)</t>
+  </si>
+  <si>
+    <t>0.8327,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.8318,(-0.11%:3)</t>
+  </si>
+  <si>
+    <t>0.8322,(-0.06%:2)</t>
+  </si>
+  <si>
+    <t>0.8325,(0.05%:1)</t>
+  </si>
+  <si>
+    <t>0.8324,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.8305,(-0.23%:3)</t>
+  </si>
+  <si>
+    <t>0.8313,(-0.21%:3)</t>
+  </si>
+  <si>
+    <t>0.8327,(-0.05%:2)</t>
+  </si>
+  <si>
+    <t>0.9917,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.9866,(-0.52%:3)</t>
+  </si>
+  <si>
+    <t>0.9917,(-0.21%:3)</t>
+  </si>
+  <si>
+    <t>0.9907,(-0.10%:2)</t>
+  </si>
+  <si>
+    <t>0.9897,(-0.21%:3)</t>
+  </si>
+  <si>
+    <t>0.9907,(0.10%:1)</t>
+  </si>
+  <si>
+    <t>v3:use projection as pseudo label(same initial model)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2647,7 +2924,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2669,6 +2946,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2709,7 +2992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2731,6 +3014,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3011,46 +3295,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AP61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.9140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.9140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.4140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.4140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="20.9140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.4140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="20.9140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="20.9140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="20.9140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="20.9140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.4140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.08203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.4140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.4140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.4140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.4140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="14" t="s">
@@ -3093,13 +3380,19 @@
       </c>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
-      <c r="AK1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>817</v>
       </c>
+      <c r="AK1" s="14"/>
       <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>844</v>
       </c>
@@ -3187,8 +3480,17 @@
       <c r="AL2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AN2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>830</v>
       </c>
@@ -3276,8 +3578,17 @@
       <c r="AL3" s="11" t="s">
         <v>735</v>
       </c>
+      <c r="AN3" t="s">
+        <v>846</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>848</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>818</v>
       </c>
@@ -3365,8 +3676,17 @@
       <c r="AL4" s="12" t="s">
         <v>736</v>
       </c>
+      <c r="AN4" t="s">
+        <v>849</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>849</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>850</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>818</v>
       </c>
@@ -3454,8 +3774,17 @@
       <c r="AL5" s="11" t="s">
         <v>738</v>
       </c>
+      <c r="AN5" t="s">
+        <v>851</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>853</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>818</v>
       </c>
@@ -3543,8 +3872,17 @@
       <c r="AL6" s="13" t="s">
         <v>540</v>
       </c>
+      <c r="AN6" t="s">
+        <v>854</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>856</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>818</v>
       </c>
@@ -3632,8 +3970,17 @@
       <c r="AL7" s="11" t="s">
         <v>741</v>
       </c>
+      <c r="AN7" t="s">
+        <v>857</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>847</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>818</v>
       </c>
@@ -3721,8 +4068,17 @@
       <c r="AL8" s="11" t="s">
         <v>744</v>
       </c>
+      <c r="AN8" t="s">
+        <v>859</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>861</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>818</v>
       </c>
@@ -3801,8 +4157,17 @@
       <c r="AL9" t="s">
         <v>132</v>
       </c>
+      <c r="AN9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>818</v>
       </c>
@@ -3881,8 +4246,17 @@
       <c r="AL10" t="s">
         <v>377</v>
       </c>
+      <c r="AN10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>729</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>745</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>834</v>
       </c>
@@ -3971,7 +4345,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>818</v>
       </c>
@@ -4060,7 +4434,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>818</v>
       </c>
@@ -4147,7 +4521,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>818</v>
       </c>
@@ -4236,7 +4610,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>818</v>
       </c>
@@ -4325,7 +4699,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>818</v>
       </c>
@@ -4414,7 +4788,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>818</v>
       </c>
@@ -4494,7 +4868,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>818</v>
       </c>
@@ -4574,7 +4948,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>835</v>
       </c>
@@ -4662,8 +5036,17 @@
       <c r="AL19" s="3" t="s">
         <v>760</v>
       </c>
+      <c r="AN19" t="s">
+        <v>862</v>
+      </c>
+      <c r="AO19" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="AP19" s="3" t="s">
+        <v>864</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>818</v>
       </c>
@@ -4751,8 +5134,17 @@
       <c r="AL20" s="2" t="s">
         <v>762</v>
       </c>
+      <c r="AN20" t="s">
+        <v>865</v>
+      </c>
+      <c r="AO20" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>867</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>818</v>
       </c>
@@ -4840,8 +5232,17 @@
       <c r="AL21" s="3" t="s">
         <v>764</v>
       </c>
+      <c r="AN21" t="s">
+        <v>868</v>
+      </c>
+      <c r="AO21" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="AP21" s="3" t="s">
+        <v>870</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>818</v>
       </c>
@@ -4929,8 +5330,17 @@
       <c r="AL22" s="2" t="s">
         <v>766</v>
       </c>
+      <c r="AN22" t="s">
+        <v>871</v>
+      </c>
+      <c r="AO22" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>873</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>818</v>
       </c>
@@ -5018,8 +5428,17 @@
       <c r="AL23" s="3" t="s">
         <v>769</v>
       </c>
+      <c r="AN23" t="s">
+        <v>874</v>
+      </c>
+      <c r="AO23" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="AP23" s="3" t="s">
+        <v>876</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>818</v>
       </c>
@@ -5107,8 +5526,17 @@
       <c r="AL24" s="2" t="s">
         <v>771</v>
       </c>
+      <c r="AN24" t="s">
+        <v>877</v>
+      </c>
+      <c r="AO24" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="AP24" s="3" t="s">
+        <v>879</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>818</v>
       </c>
@@ -5187,8 +5615,17 @@
       <c r="AL25" t="s">
         <v>132</v>
       </c>
+      <c r="AN25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>308</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>818</v>
       </c>
@@ -5267,8 +5704,17 @@
       <c r="AL26" t="s">
         <v>631</v>
       </c>
+      <c r="AN26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>880</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>631</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>833</v>
       </c>
@@ -5356,8 +5802,17 @@
       <c r="AL27" s="3" t="s">
         <v>775</v>
       </c>
+      <c r="AN27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO27" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>882</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>818</v>
       </c>
@@ -5445,8 +5900,17 @@
       <c r="AL28" s="3" t="s">
         <v>778</v>
       </c>
+      <c r="AN28" t="s">
+        <v>883</v>
+      </c>
+      <c r="AO28" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="AP28" s="3" t="s">
+        <v>885</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>818</v>
       </c>
@@ -5534,8 +5998,17 @@
       <c r="AL29" s="3" t="s">
         <v>780</v>
       </c>
+      <c r="AN29" t="s">
+        <v>886</v>
+      </c>
+      <c r="AO29" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="AP29" s="3" t="s">
+        <v>888</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>818</v>
       </c>
@@ -5623,8 +6096,17 @@
       <c r="AL30" s="2" t="s">
         <v>781</v>
       </c>
+      <c r="AN30" t="s">
+        <v>889</v>
+      </c>
+      <c r="AO30" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>891</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>818</v>
       </c>
@@ -5712,8 +6194,17 @@
       <c r="AL31" s="3" t="s">
         <v>783</v>
       </c>
+      <c r="AN31" t="s">
+        <v>892</v>
+      </c>
+      <c r="AO31" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="AP31" s="3" t="s">
+        <v>894</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>818</v>
       </c>
@@ -5801,8 +6292,17 @@
       <c r="AL32" s="2" t="s">
         <v>785</v>
       </c>
+      <c r="AN32" t="s">
+        <v>895</v>
+      </c>
+      <c r="AO32" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="AP32" s="3" t="s">
+        <v>897</v>
+      </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>818</v>
       </c>
@@ -5881,8 +6381,17 @@
       <c r="AL33" t="s">
         <v>89</v>
       </c>
+      <c r="AN33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>818</v>
       </c>
@@ -5961,8 +6470,17 @@
       <c r="AL34" t="s">
         <v>151</v>
       </c>
+      <c r="AN34" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>898</v>
+      </c>
     </row>
-    <row r="35" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>836</v>
       </c>
@@ -6050,8 +6568,17 @@
       <c r="AL35" s="11" t="s">
         <v>788</v>
       </c>
+      <c r="AN35" t="s">
+        <v>899</v>
+      </c>
+      <c r="AO35" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="AP35" s="2" t="s">
+        <v>901</v>
+      </c>
     </row>
-    <row r="36" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>818</v>
       </c>
@@ -6139,8 +6666,17 @@
       <c r="AL36" s="12" t="s">
         <v>791</v>
       </c>
+      <c r="AN36" t="s">
+        <v>902</v>
+      </c>
+      <c r="AO36" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="AP36" s="3" t="s">
+        <v>904</v>
+      </c>
     </row>
-    <row r="37" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>818</v>
       </c>
@@ -6228,8 +6764,17 @@
       <c r="AL37" s="11" t="s">
         <v>794</v>
       </c>
+      <c r="AN37" t="s">
+        <v>905</v>
+      </c>
+      <c r="AO37" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="AP37" s="3" t="s">
+        <v>907</v>
+      </c>
     </row>
-    <row r="38" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>818</v>
       </c>
@@ -6317,8 +6862,17 @@
       <c r="AL38" s="11" t="s">
         <v>796</v>
       </c>
+      <c r="AN38" t="s">
+        <v>908</v>
+      </c>
+      <c r="AO38" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="AP38" s="3" t="s">
+        <v>910</v>
+      </c>
     </row>
-    <row r="39" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>818</v>
       </c>
@@ -6406,8 +6960,17 @@
       <c r="AL39" s="11" t="s">
         <v>798</v>
       </c>
+      <c r="AN39" t="s">
+        <v>911</v>
+      </c>
+      <c r="AO39" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="AP39" s="3" t="s">
+        <v>913</v>
+      </c>
     </row>
-    <row r="40" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>818</v>
       </c>
@@ -6495,8 +7058,17 @@
       <c r="AL40" s="11" t="s">
         <v>801</v>
       </c>
+      <c r="AN40" t="s">
+        <v>914</v>
+      </c>
+      <c r="AO40" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="AP40" s="3" t="s">
+        <v>916</v>
+      </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>818</v>
       </c>
@@ -6575,8 +7147,17 @@
       <c r="AL41" t="s">
         <v>132</v>
       </c>
+      <c r="AN41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>818</v>
       </c>
@@ -6655,8 +7236,17 @@
       <c r="AL42" t="s">
         <v>803</v>
       </c>
+      <c r="AN42" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>917</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>261</v>
+      </c>
     </row>
-    <row r="43" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>832</v>
       </c>
@@ -6744,8 +7334,17 @@
       <c r="AL43" s="3" t="s">
         <v>805</v>
       </c>
+      <c r="AN43" t="s">
+        <v>678</v>
+      </c>
+      <c r="AO43" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="AP43" s="2" t="s">
+        <v>919</v>
+      </c>
     </row>
-    <row r="44" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>818</v>
       </c>
@@ -6833,8 +7432,17 @@
       <c r="AL44" s="2" t="s">
         <v>807</v>
       </c>
+      <c r="AN44" t="s">
+        <v>920</v>
+      </c>
+      <c r="AO44" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="AP44" s="3" t="s">
+        <v>922</v>
+      </c>
     </row>
-    <row r="45" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>818</v>
       </c>
@@ -6922,8 +7530,17 @@
       <c r="AL45" s="3" t="s">
         <v>809</v>
       </c>
+      <c r="AN45" t="s">
+        <v>923</v>
+      </c>
+      <c r="AO45" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AP45" s="3" t="s">
+        <v>925</v>
+      </c>
     </row>
-    <row r="46" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>818</v>
       </c>
@@ -7011,8 +7628,17 @@
       <c r="AL46" s="3" t="s">
         <v>810</v>
       </c>
+      <c r="AN46" t="s">
+        <v>726</v>
+      </c>
+      <c r="AO46" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP46" s="2" t="s">
+        <v>926</v>
+      </c>
     </row>
-    <row r="47" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>818</v>
       </c>
@@ -7100,8 +7726,17 @@
       <c r="AL47" s="2" t="s">
         <v>812</v>
       </c>
+      <c r="AN47" t="s">
+        <v>927</v>
+      </c>
+      <c r="AO47" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>927</v>
+      </c>
     </row>
-    <row r="48" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>818</v>
       </c>
@@ -7189,8 +7824,17 @@
       <c r="AL48" s="3" t="s">
         <v>813</v>
       </c>
+      <c r="AN48" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO48" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="AP48" s="3" t="s">
+        <v>930</v>
+      </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>818</v>
       </c>
@@ -7269,8 +7913,17 @@
       <c r="AL49" t="s">
         <v>111</v>
       </c>
+      <c r="AN49" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>308</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>818</v>
       </c>
@@ -7349,8 +8002,17 @@
       <c r="AL50" t="s">
         <v>729</v>
       </c>
+      <c r="AN50" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>898</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="51" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>831</v>
       </c>
@@ -7438,8 +8100,17 @@
       <c r="AL51" t="s">
         <v>138</v>
       </c>
+      <c r="AN51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO51" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AP51" s="3" t="s">
+        <v>249</v>
+      </c>
     </row>
-    <row r="52" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>818</v>
       </c>
@@ -7527,8 +8198,17 @@
       <c r="AL52" s="3" t="s">
         <v>243</v>
       </c>
+      <c r="AN52" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO52" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="53" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>818</v>
       </c>
@@ -7616,8 +8296,17 @@
       <c r="AL53" s="2" t="s">
         <v>407</v>
       </c>
+      <c r="AN53" t="s">
+        <v>931</v>
+      </c>
+      <c r="AO53" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>931</v>
+      </c>
     </row>
-    <row r="54" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>818</v>
       </c>
@@ -7705,8 +8394,17 @@
       <c r="AL54" s="3" t="s">
         <v>731</v>
       </c>
+      <c r="AN54" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO54" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="55" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>818</v>
       </c>
@@ -7794,8 +8492,17 @@
       <c r="AL55" s="3" t="s">
         <v>248</v>
       </c>
+      <c r="AN55" t="s">
+        <v>931</v>
+      </c>
+      <c r="AO55" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="AP55" s="3" t="s">
+        <v>935</v>
+      </c>
     </row>
-    <row r="56" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>818</v>
       </c>
@@ -7883,8 +8590,17 @@
       <c r="AL56" s="3" t="s">
         <v>249</v>
       </c>
+      <c r="AN56" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP56" s="2" t="s">
+        <v>936</v>
+      </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>818</v>
       </c>
@@ -7964,7 +8680,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>818</v>
       </c>
@@ -8044,7 +8760,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>818</v>
       </c>
@@ -8106,7 +8822,7 @@
         <v>1.6190476190476191</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>818</v>
       </c>
@@ -8180,14 +8896,15 @@
         <v>816</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="AK1:AM1"/>
+  <mergeCells count="10">
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:I1"/>

--- a/all_data/all_classification.xlsx
+++ b/all_data/all_classification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\all_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B90D9F-D0BA-46E1-8764-2679E72D9FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043AA4A4-3061-4BB2-B488-123C2A1B8C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="37700" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10510" yWindow="8730" windowWidth="37700" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="959">
   <si>
     <t>baseline</t>
   </si>
@@ -2859,6 +2859,69 @@
   <si>
     <t>v3:use projection as pseudo label(same initial model)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9329,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.6954,(-25.45%:3)</t>
+  </si>
+  <si>
+    <t>0.9220,(-1.16%:2)</t>
+  </si>
+  <si>
+    <t>0.9353,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.8891,(-4.94%:3)</t>
+  </si>
+  <si>
+    <t>0.9393,(0.43%:1)</t>
+  </si>
+  <si>
+    <t>0.9588,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.8592,(-10.39%:3)</t>
+  </si>
+  <si>
+    <t>0.9567,(-0.22%:2)</t>
+  </si>
+  <si>
+    <t>0.9457,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.8299,(-12.25%:3)</t>
+  </si>
+  <si>
+    <t>0.9488,(0.33%:1)</t>
+  </si>
+  <si>
+    <t>0.9458,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.8817,(-6.77%:3)</t>
+  </si>
+  <si>
+    <t>0.9496,(0.41%:1)</t>
+  </si>
+  <si>
+    <t>0.9470,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.8475,(-10.51%:3)</t>
+  </si>
+  <si>
+    <t>0.9486,(0.17%:1)</t>
+  </si>
+  <si>
+    <t>-11.72%</t>
+  </si>
+  <si>
+    <t>-0.01%</t>
+  </si>
+  <si>
+    <t>-3.40%</t>
   </si>
 </sst>
 </file>
@@ -3011,10 +3074,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3297,8 +3360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO15" sqref="AO15"/>
+    <sheetView tabSelected="1" topLeftCell="P22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR53" sqref="AR53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3340,57 +3403,57 @@
     <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>837</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>838</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="O1" s="14" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="O1" s="15" t="s">
         <v>840</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="S1" s="14" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="S1" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="X1" s="14" t="s">
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="X1" s="15" t="s">
         <v>842</v>
       </c>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AB1" s="14" t="s">
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AB1" s="15" t="s">
         <v>843</v>
       </c>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AF1" s="14" t="s">
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AF1" s="15" t="s">
         <v>733</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AJ1" s="14" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AJ1" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="14" t="s">
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4344,6 +4407,15 @@
       <c r="AL11" s="11" t="s">
         <v>747</v>
       </c>
+      <c r="AN11" t="s">
+        <v>938</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="12" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -4433,6 +4505,15 @@
       <c r="AL12" s="11" t="s">
         <v>749</v>
       </c>
+      <c r="AN12" t="s">
+        <v>941</v>
+      </c>
+      <c r="AO12" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="13" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -4520,6 +4601,15 @@
       <c r="AL13" s="11" t="s">
         <v>751</v>
       </c>
+      <c r="AN13" t="s">
+        <v>944</v>
+      </c>
+      <c r="AO13" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="AP13" s="3" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="14" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -4609,6 +4699,15 @@
       <c r="AL14" s="11" t="s">
         <v>753</v>
       </c>
+      <c r="AN14" t="s">
+        <v>947</v>
+      </c>
+      <c r="AO14" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="AP14" s="2" t="s">
+        <v>949</v>
+      </c>
     </row>
     <row r="15" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -4698,6 +4797,15 @@
       <c r="AL15" s="11" t="s">
         <v>755</v>
       </c>
+      <c r="AN15" t="s">
+        <v>950</v>
+      </c>
+      <c r="AO15" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="AP15" s="2" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="16" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -4787,6 +4895,15 @@
       <c r="AL16" s="11" t="s">
         <v>757</v>
       </c>
+      <c r="AN16" t="s">
+        <v>953</v>
+      </c>
+      <c r="AO16" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -4867,6 +4984,15 @@
       <c r="AL17" t="s">
         <v>567</v>
       </c>
+      <c r="AN17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>308</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -4947,6 +5073,15 @@
       <c r="AL18" t="s">
         <v>294</v>
       </c>
+      <c r="AN18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>956</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="19" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -8679,6 +8814,15 @@
       <c r="AL57" t="s">
         <v>111</v>
       </c>
+      <c r="AN57" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -8758,6 +8902,15 @@
       </c>
       <c r="AL58" t="s">
         <v>631</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>393</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:42" ht="14.5" x14ac:dyDescent="0.3">
@@ -8821,6 +8974,15 @@
       <c r="AL59" s="4">
         <v>1.6190476190476191</v>
       </c>
+      <c r="AN59" s="4">
+        <v>1.4761904761904761</v>
+      </c>
+      <c r="AO59" s="4">
+        <v>2.6428571428571428</v>
+      </c>
+      <c r="AP59" s="4">
+        <v>1.7380952380952379</v>
+      </c>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -8894,6 +9056,15 @@
       </c>
       <c r="AJ60" t="s">
         <v>816</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>958</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.3">
